--- a/biology/Médecine/Georges_Dujardin-Beaumetz/Georges_Dujardin-Beaumetz.xlsx
+++ b/biology/Médecine/Georges_Dujardin-Beaumetz/Georges_Dujardin-Beaumetz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Saintfort Dujardin-Beaumetz est un médecin français né à Barcelone (Espagne) le 26 novembre 1833 et mort à Beaulieu-sur-Mer le 15 février 1895[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Saintfort Dujardin-Beaumetz est un médecin français né à Barcelone (Espagne) le 26 novembre 1833 et mort à Beaulieu-sur-Mer le 15 février 1895.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né de parents français (alors employé de l'administration de la guerre à Paris, son père devint ensuite maire de Naveil et chevalier de la Légion d'honneur), il soutient sa thèse de médecine le 19 février 1862[2] et devient médecin des hôpitaux.
-Durant la Guerre franco-allemande de 1870, il est major et participe à l'organisation du service de santé, d'abord au 3e régiment d'infanterie de marine, à Sedan, puis dans la 2e armée de la Loire (31e régiment de marche). Il était major lors de la bataille de Loigny où il doit amputer[3] le général Louis-Gaston de Sonis, le 4 décembre 1870, aux abords du champ de bataille[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né de parents français (alors employé de l'administration de la guerre à Paris, son père devint ensuite maire de Naveil et chevalier de la Légion d'honneur), il soutient sa thèse de médecine le 19 février 1862 et devient médecin des hôpitaux.
+Durant la Guerre franco-allemande de 1870, il est major et participe à l'organisation du service de santé, d'abord au 3e régiment d'infanterie de marine, à Sedan, puis dans la 2e armée de la Loire (31e régiment de marche). Il était major lors de la bataille de Loigny où il doit amputer le général Louis-Gaston de Sonis, le 4 décembre 1870, aux abords du champ de bataille.
 Médecin des hôpitaux à Paris, il pratique, en 1873, des injections par voie intraveineuse avec Pierre Carle Édouard Potain. Il devient membre de l'Académie de médecine.
 En 1884, il participe à la création de l'Armée du Tonkin, à Hanoï, en tant que médecin responsable du Service de Santé.
 En 1890, il présente au Conseil d'hygiène publique et de salubrité un recueil d'épidémiologie intitulé : « Modifications à apporter aux instructions sur les mesures à prendre en cas d'épidémie cholérique ». Il exerce les fonctions de médecin des épidémies du département de la Seine.
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de la Légion d'honneur (7 mars 1893)</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On lui doit un grand nombre d'ouvrages surtout consacrés à la thérapeutique :
 Leçon de clinique thérapeutique (1879-1883)
